--- a/MJC_P21_data_input.xlsx
+++ b/MJC_P21_data_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salla\Documents\GitHub\Multiscale-Hx-P21-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6EA16A-7857-4EC9-A168-C3E001FD3ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7BA2C6-A49E-473B-AE12-C38A4005FD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{7BBE441A-E603-4CF6-821C-8B1845DFF8B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>AnimalID</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>LVAndSeptumWeightRatio</t>
+  </si>
+  <si>
+    <t>RV EDV</t>
+  </si>
+  <si>
+    <t>LV EDV</t>
   </si>
 </sst>
 </file>
@@ -510,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB4A1BE-36FE-41E6-81C7-C69975B03ADA}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,7 +530,7 @@
     <col min="9" max="9" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -570,8 +576,14 @@
       <c r="O1" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -617,8 +629,16 @@
       <c r="O2" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q2">
+        <f>O2+I2</f>
+        <v>36</v>
+      </c>
+      <c r="R2">
+        <f>N2+I2</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4</v>
       </c>
@@ -664,8 +684,16 @@
       <c r="O3" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q20" si="0">O3+I3</f>
+        <v>58</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R20" si="1">N3+I3</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5</v>
       </c>
@@ -711,8 +739,16 @@
       <c r="O4" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7</v>
       </c>
@@ -758,8 +794,16 @@
       <c r="O5" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8</v>
       </c>
@@ -805,8 +849,16 @@
       <c r="O6" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>35.5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -852,8 +904,16 @@
       <c r="O7" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10</v>
       </c>
@@ -899,8 +959,16 @@
       <c r="O8" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>57</v>
       </c>
@@ -946,8 +1014,16 @@
       <c r="O9" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>58</v>
       </c>
@@ -993,8 +1069,16 @@
       <c r="O10" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>59</v>
       </c>
@@ -1040,8 +1124,16 @@
       <c r="O11" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>61</v>
       </c>
@@ -1087,8 +1179,16 @@
       <c r="O12" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>62</v>
       </c>
@@ -1134,8 +1234,16 @@
       <c r="O13" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1181,8 +1289,16 @@
       <c r="O14" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1228,8 +1344,16 @@
       <c r="O15" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>51</v>
       </c>
@@ -1275,8 +1399,16 @@
       <c r="O16" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>52</v>
       </c>
@@ -1322,8 +1454,16 @@
       <c r="O17" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>54</v>
       </c>
@@ -1369,8 +1509,16 @@
       <c r="O18" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>55</v>
       </c>
@@ -1416,8 +1564,16 @@
       <c r="O19" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>56</v>
       </c>
@@ -1462,6 +1618,110 @@
       </c>
       <c r="O20" s="2">
         <v>37</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q22">
+        <f>_xlfn.STDEV.P(Q2:Q13)</f>
+        <v>13.609828454302999</v>
+      </c>
+      <c r="R22">
+        <f>_xlfn.STDEV.P(R2:R13)</f>
+        <v>11.358045973376466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <f>AVERAGE(I2:I13)</f>
+        <v>28.458333333333332</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:O23" si="2">AVERAGE(J2:J13)</f>
+        <v>72.166666666666671</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>38.083333333333336</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>18.416666666666668</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>23.083333333333332</v>
+      </c>
+      <c r="Q23">
+        <f>AVERAGE(Q2:Q13)</f>
+        <v>51.541666666666664</v>
+      </c>
+      <c r="R23">
+        <f>AVERAGE(R2:R13)</f>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <f>AVERAGE(I14:I20)</f>
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:O24" si="3">AVERAGE(J14:J20)</f>
+        <v>64.857142857142861</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>26.285714285714285</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>2.9285714285714284</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>15.642857142857142</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>23.571428571428573</v>
+      </c>
+      <c r="Q24">
+        <f>AVERAGE(Q14:Q20)</f>
+        <v>51.571428571428569</v>
+      </c>
+      <c r="R24">
+        <f>AVERAGE(R14:R20)</f>
+        <v>43.642857142857146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q25">
+        <f>_xlfn.STDEV.P(Q14:Q20)</f>
+        <v>13.145962366088391</v>
+      </c>
+      <c r="R25">
+        <f>_xlfn.STDEV.P(R14:R20)</f>
+        <v>7.2245330334230191</v>
       </c>
     </row>
   </sheetData>

--- a/MJC_P21_data_input.xlsx
+++ b/MJC_P21_data_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salla\Documents\GitHub\Multiscale-Hx-P21-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7BA2C6-A49E-473B-AE12-C38A4005FD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F3161-CAD9-4886-9C4E-66D3311CD750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{7BBE441A-E603-4CF6-821C-8B1845DFF8B1}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="11260" xr2:uid="{7BBE441A-E603-4CF6-821C-8B1845DFF8B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>AnimalID</t>
   </si>
@@ -93,12 +93,6 @@
   </si>
   <si>
     <t>LVAndSeptumWeightRatio</t>
-  </si>
-  <si>
-    <t>RV EDV</t>
-  </si>
-  <si>
-    <t>LV EDV</t>
   </si>
 </sst>
 </file>
@@ -516,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB4A1BE-36FE-41E6-81C7-C69975B03ADA}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,12 +570,8 @@
       <c r="O1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -629,14 +619,6 @@
       <c r="O2" s="2">
         <v>7</v>
       </c>
-      <c r="Q2">
-        <f>O2+I2</f>
-        <v>36</v>
-      </c>
-      <c r="R2">
-        <f>N2+I2</f>
-        <v>48</v>
-      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -684,14 +666,6 @@
       <c r="O3" s="2">
         <v>29</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q20" si="0">O3+I3</f>
-        <v>58</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R20" si="1">N3+I3</f>
-        <v>38</v>
-      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -739,14 +713,6 @@
       <c r="O4" s="2">
         <v>30</v>
       </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -794,14 +760,6 @@
       <c r="O5" s="2">
         <v>23</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -849,14 +807,6 @@
       <c r="O6" s="2">
         <v>22</v>
       </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>35.5</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>43.5</v>
-      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -904,14 +854,6 @@
       <c r="O7" s="2">
         <v>20</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -959,14 +901,6 @@
       <c r="O8" s="2">
         <v>16</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -1014,14 +948,6 @@
       <c r="O9" s="2">
         <v>30</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -1069,14 +995,6 @@
       <c r="O10" s="2">
         <v>33</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -1124,14 +1042,6 @@
       <c r="O11" s="2">
         <v>20</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -1179,14 +1089,6 @@
       <c r="O12" s="2">
         <v>10</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -1234,14 +1136,6 @@
       <c r="O13" s="2">
         <v>37</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -1289,14 +1183,6 @@
       <c r="O14" s="5">
         <v>12</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="1"/>
-        <v>33.5</v>
-      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -1344,14 +1230,6 @@
       <c r="O15" s="2">
         <v>15</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -1399,16 +1277,8 @@
       <c r="O16" s="2">
         <v>14</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>52</v>
       </c>
@@ -1454,16 +1324,8 @@
       <c r="O17" s="2">
         <v>39</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>54</v>
       </c>
@@ -1509,16 +1371,8 @@
       <c r="O18" s="2">
         <v>33</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>55</v>
       </c>
@@ -1564,16 +1418,8 @@
       <c r="O19" s="2">
         <v>15</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>56</v>
       </c>
@@ -1618,110 +1464,6 @@
       </c>
       <c r="O20" s="2">
         <v>37</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="Q22">
-        <f>_xlfn.STDEV.P(Q2:Q13)</f>
-        <v>13.609828454302999</v>
-      </c>
-      <c r="R22">
-        <f>_xlfn.STDEV.P(R2:R13)</f>
-        <v>11.358045973376466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="I23">
-        <f>AVERAGE(I2:I13)</f>
-        <v>28.458333333333332</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ref="J23:O23" si="2">AVERAGE(J2:J13)</f>
-        <v>72.166666666666671</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>5.083333333333333</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
-        <v>38.083333333333336</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="2"/>
-        <v>18.416666666666668</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="2"/>
-        <v>23.083333333333332</v>
-      </c>
-      <c r="Q23">
-        <f>AVERAGE(Q2:Q13)</f>
-        <v>51.541666666666664</v>
-      </c>
-      <c r="R23">
-        <f>AVERAGE(R2:R13)</f>
-        <v>46.875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="I24">
-        <f>AVERAGE(I14:I20)</f>
-        <v>28</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ref="J24:O24" si="3">AVERAGE(J14:J20)</f>
-        <v>64.857142857142861</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
-        <v>4.4285714285714288</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="3"/>
-        <v>26.285714285714285</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="3"/>
-        <v>2.9285714285714284</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="3"/>
-        <v>15.642857142857142</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="3"/>
-        <v>23.571428571428573</v>
-      </c>
-      <c r="Q24">
-        <f>AVERAGE(Q14:Q20)</f>
-        <v>51.571428571428569</v>
-      </c>
-      <c r="R24">
-        <f>AVERAGE(R14:R20)</f>
-        <v>43.642857142857146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="Q25">
-        <f>_xlfn.STDEV.P(Q14:Q20)</f>
-        <v>13.145962366088391</v>
-      </c>
-      <c r="R25">
-        <f>_xlfn.STDEV.P(R14:R20)</f>
-        <v>7.2245330334230191</v>
       </c>
     </row>
   </sheetData>
